--- a/data/trans_camb/P05B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P05B_R-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.106126607640837</v>
+        <v>-3.064659705170899</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.122185855513393</v>
+        <v>-2.097052899633985</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.109021982933947</v>
+        <v>-3.145555093152515</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.131023298822125</v>
+        <v>-4.007630738530634</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.96037662061396</v>
+        <v>-3.985284521878468</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.026577612138304</v>
+        <v>-4.226251325792935</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.142086753862225</v>
+        <v>-3.169278508309378</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.621636019195751</v>
+        <v>-2.53174768691448</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.30456870360531</v>
+        <v>-3.201323875816546</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.8025330902342906</v>
+        <v>-0.8656095149423716</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5781385648152808</v>
+        <v>0.793369516376357</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.8969898955281479</v>
+        <v>-0.8475717297181588</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.419841743814733</v>
+        <v>-1.341287137882679</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.295546447234424</v>
+        <v>-1.176972097317524</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.53292235539951</v>
+        <v>-1.571801601646845</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.397028054240792</v>
+        <v>-1.423011816128068</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.7113024385079788</v>
+        <v>-0.6487366412193335</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.579707689873792</v>
+        <v>-1.499472321565993</v>
       </c>
     </row>
     <row r="7">
@@ -783,28 +783,28 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7563373998933677</v>
+        <v>-0.7523354918586623</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.9662393931338643</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9608239908731019</v>
+        <v>-0.9639224644002339</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9705670005939236</v>
+        <v>-0.9727908021776094</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.966120685117148</v>
+        <v>-0.9564378629587269</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8359901376685497</v>
+        <v>-0.8236163474383911</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.9650181303027456</v>
+        <v>-0.9645158098836797</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3138268704356441</v>
+        <v>-0.4235196466145055</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6154749954437313</v>
+        <v>0.6900615241619804</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.6052171855360622</v>
+        <v>-0.5556695619195673</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.5666587230077829</v>
+        <v>-0.5228116818836519</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.4876042499126448</v>
+        <v>-0.423335837279065</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.7088839488641155</v>
+        <v>-0.7238154764556531</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.6755206707250402</v>
+        <v>-0.6638638445866635</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2994187638723021</v>
+        <v>-0.2906081222896518</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.7786288278916178</v>
+        <v>-0.7839488963334529</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.003165922056623</v>
+        <v>-2.12121372605394</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.472390465344598</v>
+        <v>-2.559339821283279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.136020360210597</v>
+        <v>-3.24236413429865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.595752734688018</v>
+        <v>-3.474853529940297</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.179165148144979</v>
+        <v>-4.124279070834222</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.510034518398349</v>
+        <v>-5.233108443034925</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.465100056872684</v>
+        <v>-2.423613677155586</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.1135178662191</v>
+        <v>-2.897699666424965</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.905343879545625</v>
+        <v>-3.813466381791693</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5132782316154555</v>
+        <v>0.4555469421053632</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0002062602640204427</v>
+        <v>0.03331160148062559</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.9521608203312255</v>
+        <v>-0.9627909696899122</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.148596728714303</v>
+        <v>-0.1423512939850675</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.290717728382274</v>
+        <v>-1.267223923830879</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.487080095901938</v>
+        <v>-2.481791975364088</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.250650009194877</v>
+        <v>-0.3294298714482781</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.05682091124941</v>
+        <v>-0.9964148777618602</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.011188343024817</v>
+        <v>-2.01557225266245</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6622914878287408</v>
+        <v>-0.6597115820449659</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7718980643683264</v>
+        <v>-0.7810099090932159</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9525853545862003</v>
+        <v>-0.9560476809945855</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6524070581759145</v>
+        <v>-0.6562946763041325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7832405548667462</v>
+        <v>-0.7787908490345269</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9417498355645683</v>
+        <v>-0.9395905372767704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6046942993128162</v>
+        <v>-0.5961295084512843</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7514514594780215</v>
+        <v>-0.7350390096411099</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.9175183610199739</v>
+        <v>-0.916863690568151</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3092812848459085</v>
+        <v>0.3427054893478425</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05145654681135695</v>
+        <v>0.0747630363272111</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4977614921945984</v>
+        <v>-0.4951355354033331</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.02088910787627938</v>
+        <v>-0.04180651845624585</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3329454472626747</v>
+        <v>-0.2989081238431696</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.7071620633478554</v>
+        <v>-0.721134014102597</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.062655757877439</v>
+        <v>-0.09038419031889583</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3436173415693362</v>
+        <v>-0.3270349631186596</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.7133074211410361</v>
+        <v>-0.713148628473817</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.03047455613184</v>
+        <v>-2.111090598189091</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.511194756494283</v>
+        <v>-2.49264424691142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.304759368306488</v>
+        <v>-3.311459487163124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.701453840697243</v>
+        <v>-4.592558221284916</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.493720334688622</v>
+        <v>-2.390518152701198</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.055765543765628</v>
+        <v>-5.086322709160282</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.811696141615899</v>
+        <v>-2.909581714208667</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.95650852838446</v>
+        <v>-2.08245959715564</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.873706470352566</v>
+        <v>-3.783191683644534</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.417641432105733</v>
+        <v>1.125605215169118</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.729211821774828</v>
+        <v>0.6672942112558553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.5362562499686315</v>
+        <v>-0.5987305565494292</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.325678030931656</v>
+        <v>-1.316865997443529</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.337340367602586</v>
+        <v>1.531938196749757</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.135201781611942</v>
+        <v>-2.082170090304576</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.4883626903073137</v>
+        <v>-0.4756028342701261</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5730430314185925</v>
+        <v>0.5852635427367274</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.756151469254304</v>
+        <v>-1.623797142156417</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6090420392858653</v>
+        <v>-0.6307901293068655</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7397812295495182</v>
+        <v>-0.7661531661085234</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.9394869277164228</v>
+        <v>-0.9366635225839954</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8849190778146204</v>
+        <v>-0.8836903854992695</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5201025433054368</v>
+        <v>-0.4996990369533457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.9669399297618801</v>
+        <v>-0.9641567284619004</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7114288961681249</v>
+        <v>-0.7172148141997591</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4932468467417592</v>
+        <v>-0.5244355675323226</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.9310212370414602</v>
+        <v>-0.9261634637774401</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.024917553881546</v>
+        <v>0.7686399663387304</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5061873313791957</v>
+        <v>0.4906495964799221</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2229395899985175</v>
+        <v>-0.2254020489966292</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.4176118662652704</v>
+        <v>-0.374913651330305</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4630655017859731</v>
+        <v>0.5284070822535016</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.7137778553333742</v>
+        <v>-0.7303491856378779</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1396838315938048</v>
+        <v>-0.1501698485041912</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2568327006877463</v>
+        <v>0.2346596132586123</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.6445925703043675</v>
+        <v>-0.6235348766270565</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.774514034602642</v>
+        <v>-4.059349088378847</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.741656020011217</v>
+        <v>-4.904355246620292</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.552756531938308</v>
+        <v>-3.806055734118952</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.483825850779662</v>
+        <v>-6.491704382654924</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.860195454687339</v>
+        <v>-5.745735118173453</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.08843934727273</v>
+        <v>-5.253752272691097</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.832462521021869</v>
+        <v>-4.927588561900842</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.056852829329124</v>
+        <v>-4.881760850596511</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.135237333963446</v>
+        <v>-4.123236347186537</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.4940658562157634</v>
+        <v>-0.6131813557511313</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.638404661841495</v>
+        <v>-1.682166110229979</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.1811965496214008</v>
+        <v>-0.2318415964468215</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.901969783770465</v>
+        <v>-2.955337079516655</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.028568774536173</v>
+        <v>-2.024740466996708</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.631747857521632</v>
+        <v>-1.689898787411143</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-2.334501765614643</v>
+        <v>-2.290653434381251</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.385416082128188</v>
+        <v>-2.290196712483882</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.477762408121195</v>
+        <v>-1.572886584181781</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.693181591157622</v>
+        <v>-0.6993596020029816</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8669764784794152</v>
+        <v>-0.8507158889327046</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.659236328499516</v>
+        <v>-0.6486117399118068</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8338752449820218</v>
+        <v>-0.8252974019861994</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7422618794816891</v>
+        <v>-0.7451654144967124</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6576999209910634</v>
+        <v>-0.6730004382134014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.7359960030560674</v>
+        <v>-0.7426436498655985</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7571248968116425</v>
+        <v>-0.7580710297103486</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6177361706914327</v>
+        <v>-0.6172786818618125</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.107340703401112</v>
+        <v>-0.1520817822177417</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4614748619573449</v>
+        <v>-0.4134188312052496</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.05199479965944828</v>
+        <v>-0.03852664481528765</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.5118534699084765</v>
+        <v>-0.5305528168189143</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3392984711356163</v>
+        <v>-0.3648317678431358</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.296243596359868</v>
+        <v>-0.2974804870178987</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.464527537938057</v>
+        <v>-0.4435146659625586</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.469236844666362</v>
+        <v>-0.4661948914783647</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2916698859949022</v>
+        <v>-0.3059993477980453</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-2.072835827461913</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.650618026911973</v>
+        <v>-2.650618026911974</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.008393806224667</v>
+        <v>-2.099728949866101</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.300289569289508</v>
+        <v>-2.340660556147539</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.584196740181768</v>
+        <v>-2.653541639546961</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.87171169594069</v>
+        <v>-3.959301137388097</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.485203165946196</v>
+        <v>-3.418348578587571</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.186345786958972</v>
+        <v>-4.240784752099683</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.778862149562372</v>
+        <v>-2.752168968842725</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.60814372151225</v>
+        <v>-2.692416257457038</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.196646971564409</v>
+        <v>-3.195353418008294</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.4986908896793412</v>
+        <v>-0.5700658886829542</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.8616880895153309</v>
+        <v>-0.8413655700873472</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.216578330430675</v>
+        <v>-1.208372920186634</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.177892202799018</v>
+        <v>-2.262056979757426</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.688636855056924</v>
+        <v>-1.706375516120531</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.722846132608491</v>
+        <v>-2.665503568388329</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.638773562655288</v>
+        <v>-1.600553012707783</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.426981583520512</v>
+        <v>-1.537341892883124</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.11666301388226</v>
+        <v>-2.142157422561846</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.5413291161013714</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.6922191784901421</v>
+        <v>-0.6922191784901423</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6060388588252438</v>
+        <v>-0.604544545155139</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6725353253680733</v>
+        <v>-0.6886997672687418</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7568314587644254</v>
+        <v>-0.7670053068774262</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7491605779603785</v>
+        <v>-0.7598193227990039</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6633685718285566</v>
+        <v>-0.6568225641409712</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7962182931939635</v>
+        <v>-0.7967883991237045</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6650830295044922</v>
+        <v>-0.6565249163837188</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6344748697894319</v>
+        <v>-0.632726207598987</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7593987801341695</v>
+        <v>-0.7569281654111732</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.19560097411688</v>
+        <v>-0.2123105539919978</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3348284359728639</v>
+        <v>-0.3206084006296086</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4685676917641284</v>
+        <v>-0.4620548559503435</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.5329318766871489</v>
+        <v>-0.5433505137728827</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.4127936058891636</v>
+        <v>-0.406905149986707</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.6419695125678007</v>
+        <v>-0.624986825417204</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.4611062356260295</v>
+        <v>-0.4664779715665634</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.4067675415294968</v>
+        <v>-0.4286928115551731</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.6092180132766447</v>
+        <v>-0.6128040060037716</v>
       </c>
     </row>
     <row r="34">
